--- a/tests/integration/res/ai-and-nanotech-applicants.xlsx
+++ b/tests/integration/res/ai-and-nanotech-applicants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="343">
   <si>
     <t>Number of Simple Patent Families (Fractionally Counted)</t>
   </si>
@@ -106,12 +106,12 @@
     <t>EQUAL1 LABS INC</t>
   </si>
   <si>
+    <t>IBM</t>
+  </si>
+  <si>
     <t>GOOGLE LLC</t>
   </si>
   <si>
-    <t>IBM</t>
-  </si>
-  <si>
     <t>RIGETTI &amp; CO INC</t>
   </si>
   <si>
@@ -463,28 +463,28 @@
     <t>US</t>
   </si>
   <si>
+    <t>WO</t>
+  </si>
+  <si>
     <t>AU;;US</t>
   </si>
   <si>
-    <t>WO</t>
-  </si>
-  <si>
     <t>WO;;CA;;US</t>
   </si>
   <si>
     <t>US;;KR</t>
   </si>
   <si>
+    <t>WO;;US</t>
+  </si>
+  <si>
     <t>US;;WO</t>
   </si>
   <si>
-    <t>WO;;US</t>
-  </si>
-  <si>
     <t>EP;;FR;;WO</t>
   </si>
   <si>
-    <t>TW;;GB;;WO;;EP;;SG;;CA</t>
+    <t>GB;;WO;;TW;;CA;;SG;;EP</t>
   </si>
   <si>
     <t>CN</t>
@@ -499,154 +499,142 @@
     <t>CN;;US</t>
   </si>
   <si>
-    <t>AU;;CN;;CA;;JP;;EP</t>
+    <t>CA;;AU;;EP;;CN;;JP</t>
+  </si>
+  <si>
+    <t>CA;;WO</t>
+  </si>
+  <si>
+    <t>JP;;CN;;US</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;JP;;US;;WO</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>CN;;EP</t>
+  </si>
+  <si>
+    <t>JP;;US</t>
+  </si>
+  <si>
+    <t>JP;;KR;;CN;;EP</t>
+  </si>
+  <si>
+    <t>KR;;EP;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>KR;;CA;;EP;;CN;;JP</t>
+  </si>
+  <si>
+    <t>CN;;US;;TW</t>
+  </si>
+  <si>
+    <t>CA;;AU;;KR;;EP</t>
+  </si>
+  <si>
+    <t>KR;;CA;;AU;;EP;;CN;;JP</t>
+  </si>
+  <si>
+    <t>GB;;JP;;CN;;DE</t>
+  </si>
+  <si>
+    <t>KR;;CA;;AU;;EP;;SG;;WO;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>ZA;;RU;;KR;;CA;;AU;;IL;;EP;;WO;;CN;;TW;;JP;;US</t>
+  </si>
+  <si>
+    <t>KR;;CA;;AU;;EP;;WO;;CN;;JP;;US</t>
+  </si>
+  <si>
+    <t>CN;;GB;;DE;;JP;;WO;;US</t>
+  </si>
+  <si>
+    <t>CA;;CN;;EP;;SG;;JP;;AU;;KR;;WO;;US</t>
+  </si>
+  <si>
+    <t>EP;;WO;;US</t>
+  </si>
+  <si>
+    <t>CN;;EP;;US</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;AU;;KR;;US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;WO;;US;;CA</t>
+  </si>
+  <si>
+    <t>TW;;WO;;EP;;US</t>
+  </si>
+  <si>
+    <t>US;;KR;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;WO;;CA;;US</t>
+  </si>
+  <si>
+    <t>EP;;AU;;KR;;US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>CN;;WO;;KR;;US</t>
+  </si>
+  <si>
+    <t>TW;;CN;;EP;;JP;;KR;;WO;;US</t>
+  </si>
+  <si>
+    <t>CN;;WO;;EP;;US</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;KR;;US;;CA</t>
+  </si>
+  <si>
+    <t>TW;;SG;;EP;;GB;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;US;;KR</t>
+  </si>
+  <si>
+    <t>EP;;CN;;SG;;JP;;AU;;KR;;US;;WO;;CA</t>
   </si>
   <si>
     <t>WO;;CA</t>
   </si>
   <si>
-    <t>CN;;JP;;US</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;US;;EP;;WO</t>
-  </si>
-  <si>
-    <t>KR</t>
-  </si>
-  <si>
-    <t>CN;;EP</t>
-  </si>
-  <si>
-    <t>JP;;US</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;EP</t>
-  </si>
-  <si>
-    <t>CN;;KR;;JP;;US;;EP</t>
-  </si>
-  <si>
-    <t>CA;;CN;;KR;;JP;;EP</t>
+    <t>EP;;SG;;CN;;JP;;AU;;KR;;US;;WO;;CA</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;KR;;WO;;US</t>
+  </si>
+  <si>
+    <t>JP;;CN;;EP;;KR</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;KR;;US</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;KR;;CA</t>
   </si>
   <si>
     <t>CN;;TW;;US</t>
   </si>
   <si>
-    <t>EP;;CA;;KR;;AU</t>
-  </si>
-  <si>
-    <t>CA;;CN;;AU;;JP;;EP</t>
-  </si>
-  <si>
-    <t>CA;;AU;;CN;;KR;;JP;;EP</t>
-  </si>
-  <si>
-    <t>CN;;DE;;JP;;GB</t>
-  </si>
-  <si>
-    <t>AU;;CA;;CN;;KR;;JP;;US;;WO;;EP;;SG</t>
-  </si>
-  <si>
-    <t>RU;;AU;;CA;;CN;;KR;;IL;;TW;;JP;;WO;;US;;EP;;ZA</t>
-  </si>
-  <si>
-    <t>AU;;CN;;CA;;KR;;JP;;US;;WO;;EP</t>
-  </si>
-  <si>
-    <t>KR;;JP;;US;;CA;;SG;;EP;;CN;;AU;;WO</t>
-  </si>
-  <si>
-    <t>JP;;US;;GB;;CN;;DE;;WO</t>
-  </si>
-  <si>
-    <t>US;;EP;;WO</t>
-  </si>
-  <si>
-    <t>US;;EP;;CN</t>
-  </si>
-  <si>
-    <t>US;;CN</t>
-  </si>
-  <si>
-    <t>KR;;JP;;US;;CA;;EP;;CN;;AU;;WO</t>
-  </si>
-  <si>
-    <t>US;;EP;;WO;;CA</t>
-  </si>
-  <si>
-    <t>US;;EP;;WO;;TW</t>
-  </si>
-  <si>
-    <t>US;;KR;;WO;;CA</t>
-  </si>
-  <si>
-    <t>KR;;US;;CA;;EP;;AU;;WO</t>
-  </si>
-  <si>
-    <t>US;;WO;;CA</t>
-  </si>
-  <si>
-    <t>US;;KR;;WO;;CN</t>
-  </si>
-  <si>
-    <t>KR;;JP;;US;;EP;;CN;;TW;;WO</t>
-  </si>
-  <si>
-    <t>US;;EP;;CN;;WO</t>
-  </si>
-  <si>
-    <t>KR;;JP;;US;;CA;;EP;;CN</t>
-  </si>
-  <si>
-    <t>US;;EP</t>
-  </si>
-  <si>
-    <t>FR;;EP;;WO</t>
-  </si>
-  <si>
-    <t>GB;;CA;;SG;;EP;;TW;;WO</t>
-  </si>
-  <si>
-    <t>US;;EP;;KR</t>
-  </si>
-  <si>
-    <t>US;;CN;;JP</t>
-  </si>
-  <si>
-    <t>KR;;JP;;US;;EP;;CN;;WO</t>
-  </si>
-  <si>
-    <t>EP;;CN</t>
-  </si>
-  <si>
-    <t>US;;JP</t>
-  </si>
-  <si>
-    <t>KR;;EP;;CN;;JP</t>
-  </si>
-  <si>
-    <t>KR;;JP;;US;;EP;;CN</t>
-  </si>
-  <si>
-    <t>KR;;JP;;CA;;EP;;CN</t>
-  </si>
-  <si>
-    <t>US;;CN;;TW</t>
-  </si>
-  <si>
     <t>EP;;KR;;AU;;CA</t>
   </si>
   <si>
-    <t>ZA;;KR;;RU;;IL;;JP;;US;;CA;;EP;;CN;;TW;;AU;;WO</t>
-  </si>
-  <si>
-    <t>ZA;;RU;;KR;;IL;;JP;;US;;CA;;EP;;CN;;TW;;AU;;WO</t>
-  </si>
-  <si>
-    <t>KR;;JP;;CA;;EP;;CN;;AU</t>
-  </si>
-  <si>
-    <t>DE;;CN;;JP;;GB</t>
+    <t>TW;;EP;;IL;;CN;;ZA;;JP;;AU;;KR;;US;;WO;;RU;;CA</t>
+  </si>
+  <si>
+    <t>EP;;CN;;JP;;AU;;KR;;CA</t>
+  </si>
+  <si>
+    <t>JP;;DE;;CN;;GB</t>
   </si>
   <si>
     <t>FR</t>
@@ -670,46 +658,43 @@
     <t>RU</t>
   </si>
   <si>
+    <t>US;;IB</t>
+  </si>
+  <si>
     <t>IB;;US</t>
   </si>
   <si>
-    <t>US;;AU;;CA</t>
-  </si>
-  <si>
-    <t>US;;IB</t>
-  </si>
-  <si>
-    <t>US;;AU</t>
+    <t>CA;;AU;;US</t>
   </si>
   <si>
     <t>US;;CA</t>
   </si>
   <si>
-    <t>US;;IL</t>
-  </si>
-  <si>
-    <t>FR;;EP</t>
-  </si>
-  <si>
-    <t>구글 엘엘씨;;GOOGLE INC;;GOOGLE LLC;;ラミ・バレントス;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;グーグル エルエルシー;;NEVEN HARTMUT;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK</t>
+    <t>IL;;US</t>
+  </si>
+  <si>
+    <t>EP;;FR</t>
+  </si>
+  <si>
+    <t>国际商业机器公司;;IBM;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;NEVEN HARTMUT;;구글 엘엘씨;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス;;BARENDS RAMI;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC</t>
   </si>
   <si>
     <t>D WAVE SYSTEMS INC;;YARKONI SHEIR</t>
   </si>
   <si>
-    <t>INST OF MICROELECTRONICS CAS;;中国科学院微电子研究所;;INST MICROELECTRONICS CAS</t>
-  </si>
-  <si>
-    <t>킨디 인코포레이티드;;KYNDI INC;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．</t>
-  </si>
-  <si>
-    <t>CATALOG TECHNOLOGIES INC;;CATALOG TECH INC</t>
-  </si>
-  <si>
-    <t>CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J;;HARTFORD FIRE INSURANCE COMP</t>
+    <t>中国科学院微电子研究所;;INST MICROELECTRONICS CAS;;INST OF MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>킨디 인코포레이티드;;キンダイ、インコーポレイテッドＫＹＮＤＩ， ＩＮＣ．;;KYNDI INC</t>
+  </si>
+  <si>
+    <t>CATALOG TECH INC;;CATALOG TECHNOLOGIES INC</t>
+  </si>
+  <si>
+    <t>TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN;;HARTFORD FIRE INSURANCE COMP</t>
   </si>
   <si>
     <t>ラム リサーチ コーポレーションＬＡＭ ＲＥＳＥＡＲＣＨ ＣＯＲＰＯＲＡＴＩＯＮ;;LAM RES CORP</t>
@@ -718,16 +703,16 @@
     <t>MICROSOFT TECHNOLOGY LICENSING LLC;;微软技术许可有限责任公司</t>
   </si>
   <si>
-    <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．;;DODO OMNIDATA INC</t>
-  </si>
-  <si>
-    <t>IBM;;IBM (CHINA) INVEST COMPANY LTD;;IBM UK</t>
+    <t>IRIDIA INC;;DODO OMNIDATA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
+  </si>
+  <si>
+    <t>IBM UK;;IBM;;IBM (CHINA) INVEST COMPANY LTD</t>
   </si>
   <si>
     <t>IRIDIA INC;;DODO OMNIDATA INC</t>
   </si>
   <si>
-    <t>D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
+    <t>YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
   </si>
   <si>
     <t>KATHOLIEKE UNIV LEUVEN KU LEUVEN RESEARCH &amp; DEVELOPMENT;;UNIV LEUVEN KATH;;IMEC VZW</t>
@@ -736,19 +721,19 @@
     <t>서울시립대학교 산학협력단;;UNIV SEOUL IND COOP FOUND</t>
   </si>
   <si>
-    <t>D WAVE SYSTEMS INC;;D-WAVE SYSTEMS INC;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>구글 엘엘씨;;ラミ・バレントス;;GOOGLE LLC;;GOOGLE INC;;グーグル エルエルシー;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ</t>
-  </si>
-  <si>
-    <t>グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;구글 엘엘씨;;ラミ・バレントス;;GOOGLE INC;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;グーグル エルエルシー;;NEVEN HARTMUT;;BARENDS RAMI;;GOOGLE LLC;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>ザ ユニバーシティー オブ カンタベリー;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;FOSTNER SHAWN</t>
-  </si>
-  <si>
-    <t>서강대학교산학협력단;;UNIV SOGANG RES FOUNDATION</t>
+    <t>D WAVE SYSTEMS INC;;YARKONI SHEIR;;D-WAVE SYSTEMS INC</t>
+  </si>
+  <si>
+    <t>구글 엘엘씨;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;ラミ・バレントス;;BARENDS RAMI;;グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;NEVEN HARTMUT;;구글 엘엘씨;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;BARENDS RAMI;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;BROWN SIMON ANTHONY;;THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
+  </si>
+  <si>
+    <t>UNIV SOGANG RES FOUNDATION;;서강대학교산학협력단</t>
   </si>
   <si>
     <t>东南大学;;UNIV SOUTHEAST</t>
@@ -757,19 +742,19 @@
     <t>HITACHI LTD;;株式会社日立製作所</t>
   </si>
   <si>
-    <t>电子科技大学;;UNIV ELECTRONIC SCI &amp; TECH CHINA</t>
+    <t>UNIV ELECTRONIC SCI &amp; TECH CHINA;;电子科技大学</t>
   </si>
   <si>
     <t>경희대학교 산학협력단;;UNIV INDUSTRY COOPERATION GROUP KYUNG HEE UNIV</t>
   </si>
   <si>
-    <t>ザ ユニバーシティー オブ カンタベリー;;THE UNIV OF CANTERBURY</t>
+    <t>THE UNIV OF CANTERBURY;;ザ ユニバーシティー オブ カンタベリー</t>
   </si>
   <si>
     <t>IRIDIA INC;;イリディア・インコーポレイテッドＩｒｉｄｉａ， Ｉｎｃ．</t>
   </si>
   <si>
-    <t>YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG;;ICLEAGUE TECH CO LTD</t>
+    <t>ICLEAGUE TECH CO LTD;;YANGTZE DELTA REGION INST TSINGHUA UNIV ZHEJIANG</t>
   </si>
   <si>
     <t>IUCF HYU;;한양대학교 산학협력단</t>
@@ -778,283 +763,286 @@
     <t>TAIWAN SEMICONDUCTOR MFG;;TAIWAN SEMICONDUCTOR MFG CO LTD</t>
   </si>
   <si>
-    <t>CASTRILLO SERGIO BOIXO;;GOOGLE INC;;GOOGLE LLC;;NIU YUEZHEN;;グーグル エルエルシー;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LTD LIABILITY CO;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LTD LIABILITY CO;;스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;SMIRNOV SERGEY;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ;;国际商业机器公司;;IBM</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>BOSE SAURABH KUMAR;;FOSTNER SHAWN;;THE UNIV OF CANTERBURY;;BROWN SIMON ANTHONY</t>
-  </si>
-  <si>
-    <t>ラミ・バレントス;;GOOGLE INC;;구글 엘엘씨;;グーグル エルエルシー;;BARENDS RAMI;;GOOGLE LLC</t>
-  </si>
-  <si>
-    <t>LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LIMITED LIABILITY COMPANY;;LANDIGRAD LLC;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;SMIRNOV SERGEY;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>CASTRILLO SERGIO BOIXO;;GOOGLE INC;;GOOGLE LLC;;NIU YUEZHEN;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>MAXIM GEORGE ADRIAN;;ASKER MICHAEL ALBERT;;LEIPOLD DIRK ROBERT WALTER</t>
-  </si>
-  <si>
-    <t>ハルトムート・ネーヴェン;;BABBUSH RYAN;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;エドワード・ヘンリー・ファーリ;;CASTRILLO SERGIO BOIXO;;ラミ・バレントス;;바엔즈 라미;;ユエゼン・ニウ;;NEVEN HELMUT;;NIU YUEZHEN;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;ライアン・バブシュ;;BARENDS RAMI;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>GAMBETTA JAY M;;PRISCO JOSEPH F;;HASHEMI POUYA;;CHEN RICHARD;;OLIVADESE SALVATORE BERNARDO;;LEE CHOONGHYUN;;OLIVADESE SALVATORE;;D·T·麦克鲁尔三世;;O·蒂亚尔;;STEFFEN MATTHIAS;;PHAN ANNA;;M·斯蒂芬;;ZHANG JINGYUN;;MARTIN FERNANDEZ FRANCISCO JOSE;;MCCLURE III DOUGLAS T;;LIU PENG;;GREENBERG DON;;TEMME PAUL KRISTAN;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;REZNICEK ALEXANDER;;ANDO TAKASHI;;GAMBETTA JAY;;OLIVER DIAL;;J·加姆贝塔;;PRZYBYLSKI KEVIN J;;HEKMATSHOARTABARI BAHMAN;;ダイアル、オリバー;;KUCZYNSKI JOSEPH;;DOUGLAS TEMPLETON MCCLURE III;;NEUMAN-HORN DEBRA A;;MATTHIAS STEFFEN;;JAY GAMBETTA;;TEMME PAUL;;BISHOP LEV;;DIAL OLIVER;;ステファン、マティアス;;PISTOIA MARCO;;ガンベッタ、ジェイ;;PHAN ANNA T;;マクルーア ザ サード、ダグラス、テンプルトン;;JAVADIABHARI ALI;;MISGEN MARVIN M;;MCCLURE III DOUGLAS TEMPLETON;;FARO SERTAGE ISMAEL;;NANNICINI GIACOMO</t>
-  </si>
-  <si>
-    <t>DAVIS ERIK JOSEPH;;SETE EYOB A;;SMITH ROBERT STANLEY;;OSBORN CHRISTOPHER BUTLER;;TEZAK NIKOLAS ANTON;;ZENG WILLIAM J;;CURTIS MICHAEL;;DA SILVA MARCUS PALMER;;LYNCH ADAM DAVID;;SETE EYOB;;ZENG WILLIAM;;RUST MICHAEL;;KARALEKAS PETER JONATHAN;;ALAM MUHAMMAD SOHAIB;;DESAI ANAND;;PETERSON ERIC CHRISTOPHER;;JOHNSON BLAKE ROBERT;;HEIDEL STEVEN;;JONES GLENN;;MCKIERNAN KERI ANN;;CURTIS MICHAEL J;;RIGETTI CHAD TYLER;;REAGOR MATTHEW J;;WILSON CHRISTOPHER MOGAN</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;MACREADY WILLIAM G;;BOOTHBY KELLY T R;;XUE YANBO;;BOOTHBY THOMAS J;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;KING ANDREW DOUGLAS;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>ZHU HUILONG;;ZHANG YANBO;;亨利·H·阿达姆松;;张严波;;朱正勇;;RADAMSON HENRY H;;ZHU ZHENGYONG;;王桂磊;;朱慧珑;;WANG GUILEI;;HENRY H ADAMSON</t>
+    <t>SMELYANSKIY VADIM;;NEVEN HARTMUT;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;LANDIGRAD LLC;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>国际商业机器公司;;IBM;;インターナショナル・ビジネス・マシーンズ・コーポレーションＩＮＴＥＲＮＡＴＩＯＮＡＬ ＢＵＳＩＮＥＳＳ ＭＡＣＨＩＮＥＳ ＣＯＲＰＯＲＡＴＩＯＮ</t>
+  </si>
+  <si>
+    <t>中国科学院微电子研究所;;INST OF MICROELECTRONICS CAS;;INST MICROELECTRONICS CAS</t>
+  </si>
+  <si>
+    <t>LANDIGRAD LLC;;SMIRNOV SERGEY NIKOLAYEVICH;;란디그레드, 리미티드 라이어빌리티 컴퍼니;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>THE UNIV OF CANTERBURY;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
+  </si>
+  <si>
+    <t>구글 엘엘씨;;ラミ・バレントス;;BARENDS RAMI;;グーグル エルエルシー;;GOOGLE INC;;GOOGLE LLC</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;OBSHCHESTVO S OGRANICHENNOJ OTVETSTVENNOSTYU LENDIGRAD;;LANDIGRAD LIMITED LIABILITY COMPANY;;SMIRNOV SERGEY NIIKOLAYEVICH;;LANDIGRAD LTD LIABILITY CO;;SMIRNOV SERGEY;;LANDIGRAD LLC</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;グーグル エルエルシーＧｏｏｇｌｅ ＬＬＣ;;NIU YUEZHEN;;GOOGLE INC;;GOOGLE LLC</t>
+  </si>
+  <si>
+    <t>ASKER MICHAEL ALBERT;;MAXIM GEORGE ADRIAN;;LEIPOLD DIRK ROBERT WALTER</t>
+  </si>
+  <si>
+    <t>TEMME PAUL;;KUCZYNSKI JOSEPH;;DOUGLAS TEMPLETON MCCLURE III;;OLIVADESE SALVATORE;;GREENBERG DON;;LIU PENG;;PISTOIA MARCO;;JAVADIABHARI ALI;;FARO SERTAGE ISMAEL;;TEMME PAUL KRISTAN;;O·蒂亚尔;;GAMBETTA JAY;;CORCOLES-GONZALEZ ANTONIO;;ZHANG JINGYUN;;MATTHIAS STEFFEN;;PRZYBYLSKI KEVIN J;;NEUMAN-HORN DEBRA A;;ステファン、マティアス;;MCCLURE III DOUGLAS T;;PRISCO JOSEPH F;;MARTIN FERNANDEZ FRANCISCO JOSE;;BISHOP LEV;;HEKMATSHOARTABARI BAHMAN;;CHEN RICHARD;;MISGEN MARVIN M;;DIAL OLIVER;;PHAN ANNA;;STEFFEN MATTHIAS;;D·T·麦克鲁尔三世;;LEE CHOONGHYUN;;OLIVADESE SALVATORE BERNARDO;;M·斯蒂芬;;MCCLURE III DOUGLAS TEMPLETON;;マクルーア ザ サード、ダグラス、テンプルトン;;J·加姆贝塔;;PHAN ANNA T;;ANDO TAKASHI;;BISHOP LEV SAMUEL;;ガンベッタ、ジェイ;;GAMBETTA JAY M;;NANNICINI GIACOMO;;OLIVER DIAL;;REZNICEK ALEXANDER;;JAY GAMBETTA;;ダイアル、オリバー;;HASHEMI POUYA</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;ハルトムート・ネーフェン;;BABBUSH RYAN;;NEVEN HARTMUT;;바엔즈 라미;;セルジオ・バイショ・カストリージョ;;FARHI EDWARD HENRY;;CASTRILLO SERGIO BOIXO;;BARENDS RAMI;;ライアン・バブシュ;;NIU YUEZHEN;;ハルトムート・ネーヴェン;;ラミ・バレントス;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;NEVEN HELMUT;;エドワード・ヘンリー・ファーリ;;BOIXO CASTRILLO SERGIO</t>
+  </si>
+  <si>
+    <t>MCKIERNAN KERI ANN;;ZENG WILLIAM;;CURTIS MICHAEL J;;SETE EYOB;;DESAI ANAND;;JOHNSON BLAKE ROBERT;;TEZAK NIKOLAS ANTON;;RIGETTI CHAD TYLER;;WILSON CHRISTOPHER MOGAN;;LYNCH ADAM DAVID;;DA SILVA MARCUS PALMER;;ZENG WILLIAM J;;JONES GLENN;;KARALEKAS PETER JONATHAN;;CURTIS MICHAEL;;REAGOR MATTHEW J;;HEIDEL STEVEN;;SETE EYOB A;;OSBORN CHRISTOPHER BUTLER;;DAVIS ERIK JOSEPH;;PETERSON ERIC CHRISTOPHER;;ALAM MUHAMMAD SOHAIB;;RUST MICHAEL;;SMITH ROBERT STANLEY</t>
+  </si>
+  <si>
+    <t>BOOTHBY KELLY T R;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;ROLFE JASON;;MACREADY WILLIAM G;;XUE YANBO;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;ANDRIYASH EVGENY A;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
+  </si>
+  <si>
+    <t>亨利·H·阿达姆松;;HENRY H ADAMSON;;张严波;;WANG GUILEI;;ZHANG YANBO;;朱正勇;;朱慧珑;;RADAMSON HENRY H;;王桂磊;;ZHU HUILONG;;ZHU ZHENGYONG</t>
+  </si>
+  <si>
+    <t>アルン、マジュムダール;;마줌다 아룬;;MAJUMDAR ARUN</t>
+  </si>
+  <si>
+    <t>MASILAMANI ASHOK PRABHU;;GAHROOSI AMIR BAHADOR;;KHOMAMI ABADI MOJTABA;;MASILAMANI ASHOK;;GOULD MATTHEW V;;GAHROOSI AMIR;;GOULD MATTHEW</t>
+  </si>
+  <si>
+    <t>SIGNAEVSKI MAXIM M;;SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR</t>
+  </si>
+  <si>
+    <t>WOLKOW ROBERT;;WOLKOW ROBERT A;;HUFF TALEANA;;RASHIDI MOHAMMAD;;CROSHAW JEREMIAH;;VINE WYATT;;DIENEL THOMAS;;LIVADARU LUCIAN;;WALUS CONRAD;;RETALLICK JACOB;;WALUS KONRAD</t>
+  </si>
+  <si>
+    <t>NGUYEN CHRISTIAN;;SIPAHIGIL ALP;;EVANS RUFFIN E;;WANG SHENGTAO;;LUKIN MIKHAIL D;;SUKACHEV DENIS D;;PICHLER HANNES;;SUKACHEV DENIS;;NGUYEN CHRISTIAN THIEU;;CHOI SOONWON;;BHASKAR MIHIR KESHAV;;EVANS RUFFIN;;LUNKIN MIKHAIL;;ZHOU LEO;;ZHOU LEO XIANGYU;;BHASKAR MIHIR;;LUKIN MIKHAIL</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL;;PARK HYUNJUN;;LEAKE DEVIN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P</t>
+  </si>
+  <si>
+    <t>TIPTON THOMAS ANDREW;;DUNST MICHAEL J;;BATTAGLINI JOSEPH S;;CARROLL WILLIAM JOSEPH;;MOLINSKY BRADLEY DEAN</t>
+  </si>
+  <si>
+    <t>KAPIT ELIOT</t>
+  </si>
+  <si>
+    <t>PARK YOUNG-SOO;;KIM SANG-SIK;;LIM DOO-HYEOK;;CHO JIN SUN;;WOO SOL-A;;HEO JUN;;SOHN IL KWON;;WOO SOL A;;CHO KYOUNG AH;;KIM SANG SIG;;CHO JIN-SUN;;CHO KYOUNG-AH;;LIM DOO HYEOK;;PARK YOUNG SOO</t>
+  </si>
+  <si>
+    <t>ゴットショ・リチャード・アラン;;GUHA JOYDEEP;;VAHEDI VAHID;;GOTTSCHO RICHARD ALAN;;バヘディ・バヘド;;DAUGHERTY JOHN;;ダウガティ・ジョン;;グーハ・ジョイディープ</t>
+  </si>
+  <si>
+    <t>NGUYEN BICHLIEN HOANG;;STRAUSS KARIN;;B·H·阮;;GRASS ROBERT;;CHEN WEIDA;;A·X·C·科尔;;K·施特劳斯;;GAMBLE IV JOHN KING;;WIEBE NATHAN O;;GRANADE CHRISTOPHER EVAN;;GAMBLE JOHN KING;;W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;R·格拉斯</t>
+  </si>
+  <si>
+    <t>ポール・エフ・プレドキ;;マジャ・キャシディ;;CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>NAGLER ACHIYA;;MALKIEL ITZIK;;MREJEN MICHAEL;;WOLF LIOR;;ARIELI URI;;SUCHOWSKI HAIM</t>
+  </si>
+  <si>
+    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
+  </si>
+  <si>
+    <t>JOHNSON PETER D;;ANSCHUETZ ERIC R;;KATABARWA AMARA;;CAO YUDONG;;GONTHIER JEROME FLORIAN;;DALLAIRE-DEMERS PIERRE-LUC</t>
+  </si>
+  <si>
+    <t>FRANK IAN WARD;;DUBAY RYAN;;MAGYAR ANDREW P;;DUBAY RYAN A;;SPRACHMAN MELISSA;;FRANK IAN;;SPRACHMAN MELISSA M;;MCFARLAND KIRSTY A;;KOTZ KENNETH;;ROSENBERGER ERIN;;HUANG HAIYAO;;FAVALORA GREGG E;;MCFARLAND KIRSTY;;MARKOVIC STACEY;;MAGYAR ANDREW;;CAVANAGH PETER;;KOTZ KENNETH T;;VARGO EMMA;;FAVALORA GREGG;;BYRNES STEVEN;;BYRNES STEVEN J</t>
+  </si>
+  <si>
+    <t>YOUNGNER DANIEL</t>
+  </si>
+  <si>
+    <t>GUILLOU DAVID FRANCOIS;;SINHA RAJARISHI;;GUILLOU DAVID</t>
+  </si>
+  <si>
+    <t>CONSTANCIAS CHRISTOPHE;;LANDIS STEPHAN;;LANDIS STÉPHAN</t>
+  </si>
+  <si>
+    <t>SANCHES-KUIPER RAQUEL MARIA;;MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER;;HAYES MATTHEW JAMES</t>
+  </si>
+  <si>
+    <t>TEMME PAUL;;OLIVADESE SALVATORE;;GREENBERG DON;;PISTOIA MARCO;;TEMME PAUL KRISTAN;;GAMBETTA JAY;;CORCOLES-GONZALEZ ANTONIO;;MCCLURE III DOUGLAS T;;BISHOP LEV;;CHEN RICHARD;;DIAL OLIVER;;PHAN ANNA;;STEFFEN MATTHIAS;;OLIVADESE SALVATORE BERNARDO;;MCCLURE III DOUGLAS TEMPLETON;;PHAN ANNA T;;BISHOP LEV SAMUEL;;GAMBETTA JAY M;;NANNICINI GIACOMO</t>
+  </si>
+  <si>
+    <t>亨利·H·阿达姆松;;HENRY H ADAMSON;;张严波;;WANG GUILEI;;ZHANG YANBO;;朱正勇;;朱慧珑;;王桂磊;;ZHU HUILONG;;ZHU ZHENGYONG</t>
+  </si>
+  <si>
+    <t>CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>YARKONI SHEIR;;KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;ROLFE JASON;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY;;ANDRIYASH EVGENY A;;LANTING TREVOR MICHAEL;;AMIN MOHAMMAD H S</t>
+  </si>
+  <si>
+    <t>ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN;;CAI QING;;COSTA JOSE DIOGO;;COVENS KRIS;;CHEN CHANG;;STAKENBORG TIM;;FAUVART MAARTEN</t>
+  </si>
+  <si>
+    <t>TRESP VOLKER;;MA YUNPU</t>
+  </si>
+  <si>
+    <t>POOSER RAPHAEL C;;MAKSYMOVYCH PETRO;;LAWRIE BENJAMIN J</t>
+  </si>
+  <si>
+    <t>RIZIK LUNA;;DANIEL RAMEZ</t>
+  </si>
+  <si>
+    <t>YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA;;GABRYS RYAN</t>
+  </si>
+  <si>
+    <t>안도열;;AHN DO YEOL</t>
+  </si>
+  <si>
+    <t>GHOSH TAPABRATA</t>
+  </si>
+  <si>
+    <t>ZHOU WENLI;;WANG YUNBO;;GAO JUNXIONG;;ZHU YU;;CHENG RUNHONG;;CHEN CHANGSHENG;;WU SHUO</t>
+  </si>
+  <si>
+    <t>REN DELIANG;;YAN XIAOBING;;WANG KAIYANG</t>
+  </si>
+  <si>
+    <t>PANKONIEN ALEXANDER M;;DICKINSON BENJAMIN T;;KONDASH COREY R;;MAGAR KAMAN THAPA;;REICH GREGORY W;;SLINKER KEITH;;BAUR JEFFREY W</t>
+  </si>
+  <si>
+    <t>NIVALA JEFFREY MATTHEW</t>
+  </si>
+  <si>
+    <t>YU DAN;;WANG ZEHONG;;WANG WEI;;CHEN YIXIANG</t>
+  </si>
+  <si>
+    <t>LEE HONG-SUB;;SANGWAN VINOD K;;HERSAM MARK C</t>
+  </si>
+  <si>
+    <t>FONG KIN CHUNG;;SIU MAN-HUNG;;JIANG ZHUOLIN</t>
+  </si>
+  <si>
+    <t>MANSSON ALF;;TAKATSUKI HIDEYO;;DIEZ STEFAN;;KORTEN TILL;;REUTHER CORDULA</t>
+  </si>
+  <si>
+    <t>ANG KAH-WEE;;TAN WEE CHONG</t>
+  </si>
+  <si>
+    <t>XU JUN;;LIANG RENRONG;;LIU YU;;ZHAO LINYUAN</t>
+  </si>
+  <si>
+    <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
+  </si>
+  <si>
+    <t>HEO KEUN;;LEE HYUNG-DONG;;LEE HYUNG DONG;;CHOI YONG SOO;;CHOI YONG-SOO</t>
+  </si>
+  <si>
+    <t>YANG JIANHUA;;WU QING;;MCLEAN MARK;;XIA QIANGFEI</t>
+  </si>
+  <si>
+    <t>BOOTHBY KELLY T R;;YARKONI SHEIR;;KING ANDREW DOUGLAS;;BOOTHBY THOMAS J;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;LANTING TREVOR MICHAEL</t>
+  </si>
+  <si>
+    <t>ZHANG XIANGCHENG;;WU JIAN</t>
+  </si>
+  <si>
+    <t>ZORNES DAVID</t>
+  </si>
+  <si>
+    <t>Huilong Zhu;;Zhengyong Zhu</t>
+  </si>
+  <si>
+    <t>YOUNG IAN A;;MANIPATRUNI SASIKANTH;;NIKONOV DMITRI E</t>
+  </si>
+  <si>
+    <t>ZHU HUILONG</t>
+  </si>
+  <si>
+    <t>BABBUSH RYAN;;NEVEN HARTMUT;;바엔즈 라미;;ライアン・バブシュ;;FARHI EDWARD HENRY;;ラミ・バレントス;;BARENDS RAMI;;ハルトムート・ネーヴェン;;エドワード・ヘンリー・ファーリ</t>
+  </si>
+  <si>
+    <t>FAROKHZAD OMID;;MAHMOUDI MORTEZA;;CORBO CLAUDIA</t>
+  </si>
+  <si>
+    <t>VASTAREY NIKHIL SURESH;;KAPOOR ANMOL SINGH;;WANG GANG (A K A JOSEPH);;KOUL RAMAN;;WANG GANG;;BHAT SUMRITA;;SALAHANDISH RAZIEH</t>
+  </si>
+  <si>
+    <t>SHIMA SHOHEI</t>
+  </si>
+  <si>
+    <t>KIM CHIHO;;CHANDRASEKARAN ANAND;;RAMPRASAD RAMPI</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;ハルトムート・ネーフェン;;BABBUSH RYAN;;NEVEN HARTMUT;;바엔즈 라미;;セルジオ・バイショ・カストリージョ;;CASTRILLO SERGIO BOIXO;;BARENDS RAMI;;ラミ・バレントス;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;BOIXO CASTRILLO SERGIO</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;フォスナー ショーン;;ブラウン シモン アンソニー;;ボーズ サウラブ クマー;;FOSTNER SHAWN;;BROWN SIMON ANTHONY</t>
+  </si>
+  <si>
+    <t>CHOI JEONG WOO;;정용호;;CHUNG YONG HO;;최정우</t>
+  </si>
+  <si>
+    <t>李源;;幸研;;LI YUAN;;XING YAN;;张晋;;ZHANG HUI;;ZHANG JIN;;张辉</t>
+  </si>
+  <si>
+    <t>NGUYEN BICHLIEN HOANG;;B·H·阮;;STRAUSS KARIN;;GRASS ROBERT;;CHEN WEIDA;;A·X·C·科尔;;K·施特劳斯;;W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;R·格拉斯</t>
+  </si>
+  <si>
+    <t>SHINKAI GOU;;新海 剛</t>
+  </si>
+  <si>
+    <t>ZHONG HAO;;李东阳;;陈奕丞;;钟豪;;JIANG YADONG;;李伟;;蒋亚东;;CHEN YICHENG;;GU DEEN;;GU DE'EN;;LI WEI;;LI DONGYANG;;顾德恩</t>
+  </si>
+  <si>
+    <t>파쿼 아마드;;신현동;;정영민;;JEONG YOUNG MIN;;SHIN HYUN DONG;;FAROOQ AHMAD</t>
+  </si>
+  <si>
+    <t>マジャ・キャシディ;;ポール・エフ・プレドキ;;CASSIDY MAJA;;PREDKI PAUL F</t>
+  </si>
+  <si>
+    <t>JIANG WEINAN;;YU XING</t>
+  </si>
+  <si>
+    <t>KIM JIN BAE;;TRINH XUAN TUNG;;HA KIEU MY;;YOON TAE HYUN;;윤태현;;김진배;;하키우;;트린수안텅</t>
+  </si>
+  <si>
+    <t>VAN DAL MARCUS JOHANNES HENRICUS;;GERBEN DOORNBOS;;DOORNBOS GERBEN;;MANFRINI MAURICIO;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI</t>
+  </si>
+  <si>
+    <t>BHATIA SWAPNIL P;;LEAKE DEVIN;;PARK HYUNJUN;;ROQUET NATHANIEL</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;ハルトムート・ネーフェン;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;FARHI EDWARD HENRY;;CASTRILLO SERGIO BOIXO;;ハルトムート・ネーヴェン;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;エドワード・ヘンリー・ファーリ;;BOIXO CASTRILLO SERGIO</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
   </si>
   <si>
     <t>MAJUMDAR ARUN;;마줌다 아룬;;アルン、マジュムダール</t>
   </si>
   <si>
-    <t>GAHROOSI AMIR;;GOULD MATTHEW V;;MASILAMANI ASHOK PRABHU;;GOULD MATTHEW;;MASILAMANI ASHOK;;KHOMAMI ABADI MOJTABA;;GAHROOSI AMIR BAHADOR</t>
-  </si>
-  <si>
-    <t>SIGNAEVSKY MAXIM;;YAROSLAVSKY IGOR YEHUDA;;YAROSLAVSKY IGOR;;SIGNAEVSKI MAXIM M</t>
-  </si>
-  <si>
-    <t>WOLKOW ROBERT;;DIENEL THOMAS;;CROSHAW JEREMIAH;;VINE WYATT;;WOLKOW ROBERT A;;WALUS CONRAD;;LIVADARU LUCIAN;;RETALLICK JACOB;;RASHIDI MOHAMMAD;;HUFF TALEANA;;WALUS KONRAD</t>
-  </si>
-  <si>
-    <t>EVANS RUFFIN;;LUKIN MIKHAIL D;;WANG SHENGTAO;;LUKIN MIKHAIL;;CHOI SOONWON;;ZHOU LEO;;BHASKAR MIHIR KESHAV;;SIPAHIGIL ALP;;SUKACHEV DENIS;;PICHLER HANNES;;EVANS RUFFIN E;;LUNKIN MIKHAIL;;NGUYEN CHRISTIAN THIEU;;BHASKAR MIHIR;;ZHOU LEO XIANGYU;;NGUYEN CHRISTIAN;;SUKACHEV DENIS D</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL;;PARK HYUNJUN;;ROQUET NATHANIEL;;BHATIA SWAPNIL P;;LEAKE DEVIN</t>
-  </si>
-  <si>
-    <t>CARROLL WILLIAM JOSEPH;;BATTAGLINI JOSEPH S;;TIPTON THOMAS ANDREW;;MOLINSKY BRADLEY DEAN;;DUNST MICHAEL J</t>
-  </si>
-  <si>
-    <t>KAPIT ELIOT</t>
-  </si>
-  <si>
-    <t>LIM DOO HYEOK;;KIM SANG-SIK;;CHO JIN SUN;;CHO JIN-SUN;;WOO SOL A;;WOO SOL-A;;SOHN IL KWON;;LIM DOO-HYEOK;;HEO JUN;;CHO KYOUNG-AH;;KIM SANG SIG;;PARK YOUNG-SOO;;PARK YOUNG SOO;;CHO KYOUNG AH</t>
-  </si>
-  <si>
-    <t>バヘディ・バヘド;;DAUGHERTY JOHN;;GOTTSCHO RICHARD ALAN;;GUHA JOYDEEP;;グーハ・ジョイディープ;;ダウガティ・ジョン;;VAHEDI VAHID;;ゴットショ・リチャード・アラン</t>
-  </si>
-  <si>
-    <t>GAMBLE JOHN KING;;A·X·C·科尔;;B·H·阮;;W·陈;;KOHLL ALEXANDER XAVIER CHRISTOF;;NGUYEN BICHLIEN HOANG;;CHEN WEIDA;;STRAUSS KARIN;;R·格拉斯;;GAMBLE IV JOHN KING;;GRANADE CHRISTOPHER EVAN;;K·施特劳斯;;WIEBE NATHAN O;;GRASS ROBERT</t>
-  </si>
-  <si>
-    <t>ポール・エフ・プレドキ;;PREDKI PAUL F;;CASSIDY MAJA;;マジャ・キャシディ</t>
-  </si>
-  <si>
-    <t>MALKIEL ITZIK;;ARIELI URI;;NAGLER ACHIYA;;WOLF LIOR;;MREJEN MICHAEL;;SUCHOWSKI HAIM</t>
-  </si>
-  <si>
-    <t>ZHANG LIHONG;;NABAVI SEYEDFAKHREDDIN</t>
-  </si>
-  <si>
-    <t>DALLAIRE-DEMERS PIERRE-LUC;;JOHNSON PETER D;;KATABARWA AMARA;;GONTHIER JEROME FLORIAN;;ANSCHUETZ ERIC R;;CAO YUDONG</t>
-  </si>
-  <si>
-    <t>MARKOVIC STACEY;;MAGYAR ANDREW;;MCFARLAND KIRSTY;;FRANK IAN WARD;;BYRNES STEVEN;;FAVALORA GREGG E;;DUBAY RYAN A;;SPRACHMAN MELISSA M;;MCFARLAND KIRSTY A;;KOTZ KENNETH;;BYRNES STEVEN J;;MAGYAR ANDREW P;;HUANG HAIYAO;;KOTZ KENNETH T;;VARGO EMMA;;CAVANAGH PETER;;ROSENBERGER ERIN;;FRANK IAN;;SPRACHMAN MELISSA;;FAVALORA GREGG;;DUBAY RYAN</t>
-  </si>
-  <si>
-    <t>YOUNGNER DANIEL</t>
-  </si>
-  <si>
-    <t>GUILLOU DAVID;;SINHA RAJARISHI;;GUILLOU DAVID FRANCOIS</t>
-  </si>
-  <si>
-    <t>LANDIS STEPHAN;;LANDIS STÉPHAN;;CONSTANCIAS CHRISTOPHE</t>
-  </si>
-  <si>
-    <t>SANCHES-KUIPER RAQUEL MARIA;;HAYES MATTHEW JAMES;;MATTHEW JAMES HAYES;;RAQUEL MARIA SANCHES-KUIPER</t>
-  </si>
-  <si>
-    <t>GAMBETTA JAY M;;CHEN RICHARD;;OLIVADESE SALVATORE BERNARDO;;OLIVADESE SALVATORE;;STEFFEN MATTHIAS;;PHAN ANNA;;MCCLURE III DOUGLAS T;;GREENBERG DON;;TEMME PAUL KRISTAN;;BISHOP LEV SAMUEL;;CORCOLES-GONZALEZ ANTONIO;;GAMBETTA JAY;;TEMME PAUL;;BISHOP LEV;;DIAL OLIVER;;PISTOIA MARCO;;PHAN ANNA T;;MCCLURE III DOUGLAS TEMPLETON;;NANNICINI GIACOMO</t>
-  </si>
-  <si>
-    <t>ZHU HUILONG;;ZHANG YANBO;;亨利·H·阿达姆松;;张严波;;朱正勇;;ZHU ZHENGYONG;;王桂磊;;朱慧珑;;WANG GUILEI;;HENRY H ADAMSON</t>
-  </si>
-  <si>
-    <t>PREDKI PAUL F;;CASSIDY MAJA</t>
-  </si>
-  <si>
-    <t>ROLFE JASON;;AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;BOOTHBY THOMAS J;;LANTING TREVOR MICHAEL;;ANDRIYASH EVGENY;;AMIN MOHAMMAD H S;;KING ANDREW DOUGLAS;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>STAKENBORG TIM;;CIUBOTARU FLORIN;;CHEN CHANG;;COVENS KRIS;;FAUVART MAARTEN;;CAI QING;;ADELMANN HANNS CHRISTOPH;;COSTA JOSE DIOGO</t>
-  </si>
-  <si>
-    <t>TRESP VOLKER;;MA YUNPU</t>
-  </si>
-  <si>
-    <t>POOSER RAPHAEL C;;LAWRIE BENJAMIN J;;MAKSYMOVYCH PETRO</t>
-  </si>
-  <si>
-    <t>RIZIK LUNA;;DANIEL RAMEZ</t>
-  </si>
-  <si>
-    <t>YAZDI S M HOSSEIN TABATABAEI;;MILENKOVIC OLGICA;;GABRYS RYAN</t>
-  </si>
-  <si>
-    <t>AHN DO YEOL;;안도열</t>
-  </si>
-  <si>
-    <t>GHOSH TAPABRATA</t>
-  </si>
-  <si>
-    <t>WANG YUNBO;;ZHU YU;;WU SHUO;;CHEN CHANGSHENG;;ZHOU WENLI;;CHENG RUNHONG;;GAO JUNXIONG</t>
-  </si>
-  <si>
-    <t>WANG KAIYANG;;YAN XIAOBING;;REN DELIANG</t>
-  </si>
-  <si>
-    <t>KONDASH COREY R;;BAUR JEFFREY W;;PANKONIEN ALEXANDER M;;SLINKER KEITH;;REICH GREGORY W;;DICKINSON BENJAMIN T;;MAGAR KAMAN THAPA</t>
-  </si>
-  <si>
-    <t>NIVALA JEFFREY MATTHEW</t>
-  </si>
-  <si>
-    <t>CHEN YIXIANG;;YU DAN;;WANG ZEHONG;;WANG WEI</t>
-  </si>
-  <si>
-    <t>HERSAM MARK C;;LEE HONG-SUB;;SANGWAN VINOD K</t>
-  </si>
-  <si>
-    <t>JIANG ZHUOLIN;;FONG KIN CHUNG;;SIU MAN-HUNG</t>
-  </si>
-  <si>
-    <t>MANSSON ALF;;TAKATSUKI HIDEYO;;REUTHER CORDULA;;KORTEN TILL;;DIEZ STEFAN</t>
-  </si>
-  <si>
-    <t>TAN WEE CHONG;;ANG KAH-WEE</t>
-  </si>
-  <si>
-    <t>LIU YU;;LIANG RENRONG;;ZHAO LINYUAN;;XU JUN</t>
-  </si>
-  <si>
-    <t>AGGARWAL PRIYANKA;;CHODAVARAPU VAMSY</t>
-  </si>
-  <si>
-    <t>CHOI YONG-SOO;;HEO KEUN;;CHOI YONG SOO;;LEE HYUNG-DONG;;LEE HYUNG DONG</t>
-  </si>
-  <si>
-    <t>XIA QIANGFEI;;MCLEAN MARK;;YANG JIANHUA;;WU QING</t>
-  </si>
-  <si>
-    <t>AMIN MOHAMMAD H;;ANDRIYASH EVGENY A;;BOOTHBY KELLY T R;;BOOTHBY THOMAS J;;LANTING TREVOR MICHAEL;;KING ANDREW DOUGLAS;;YARKONI SHEIR</t>
-  </si>
-  <si>
-    <t>WU JIAN;;ZHANG XIANGCHENG</t>
-  </si>
-  <si>
-    <t>ZORNES DAVID</t>
-  </si>
-  <si>
-    <t>Zhengyong Zhu;;Huilong Zhu</t>
-  </si>
-  <si>
-    <t>MANIPATRUNI SASIKANTH;;YOUNG IAN A;;NIKONOV DMITRI E</t>
-  </si>
-  <si>
-    <t>ZHU HUILONG</t>
-  </si>
-  <si>
-    <t>ハルトムート・ネーヴェン;;BABBUSH RYAN;;エドワード・ヘンリー・ファーリ;;ラミ・バレントス;;바엔즈 라미;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;ライアン・バブシュ;;BARENDS RAMI</t>
-  </si>
-  <si>
-    <t>MAHMOUDI MORTEZA;;CORBO CLAUDIA;;FAROKHZAD OMID</t>
-  </si>
-  <si>
-    <t>KOUL RAMAN;;KAPOOR ANMOL SINGH;;BHAT SUMRITA;;WANG GANG;;VASTAREY NIKHIL SURESH;;SALAHANDISH RAZIEH;;WANG GANG (A K A JOSEPH)</t>
-  </si>
-  <si>
-    <t>SHIMA SHOHEI</t>
-  </si>
-  <si>
-    <t>CHANDRASEKARAN ANAND;;RAMPRASAD RAMPI;;KIM CHIHO</t>
-  </si>
-  <si>
-    <t>セルジオ・バイショ・カストリージョ;;BABBUSH RYAN;;BOIXO CASTRILLO SERGIO;;ラミ・バレントス;;바엔즈 라미;;CASTRILLO SERGIO BOIXO;;ユエゼン・ニウ;;NIU YUEZHEN;;NEVEN HARTMUT;;BARENDS RAMI;;ヴァディム・スメリャンスキー;;ハルトムート・ネーフェン;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>BROWN SIMON ANTHONY;;ブラウン シモン アンソニー;;フォスナー ショーン;;BOSE SAURABH KUMAR;;ボーズ サウラブ クマー;;FOSTNER SHAWN</t>
-  </si>
-  <si>
-    <t>CHOI JEONG WOO;;CHUNG YONG HO;;정용호;;최정우</t>
-  </si>
-  <si>
-    <t>李源;;ZHANG JIN;;张辉;;幸研;;XING YAN;;张晋;;LI YUAN;;ZHANG HUI</t>
-  </si>
-  <si>
-    <t>A·X·C·科尔;;B·H·阮;;KOHLL ALEXANDER XAVIER CHRISTOF;;NGUYEN BICHLIEN HOANG;;CHEN WEIDA;;STRAUSS KARIN;;R·格拉斯;;K·施特劳斯;;W·陈;;GRASS ROBERT</t>
-  </si>
-  <si>
-    <t>SHINKAI GOU;;新海 剛</t>
-  </si>
-  <si>
-    <t>JIANG YADONG;;李伟;;钟豪;;LI WEI;;顾德恩;;李东阳;;陈奕丞;;蒋亚东;;CHEN YICHENG;;GU DE'EN;;GU DEEN;;LI DONGYANG;;ZHONG HAO</t>
-  </si>
-  <si>
-    <t>파쿼 아마드;;FAROOQ AHMAD;;JEONG YOUNG MIN;;신현동;;정영민;;SHIN HYUN DONG</t>
-  </si>
-  <si>
-    <t>バヘディ・バヘド;;DAUGHERTY JOHN;;GUHA JOYDEEP;;GOTTSCHO RICHARD ALAN;;グーハ・ジョイディープ;;ダウガティ・ジョン;;VAHEDI VAHID;;ゴットショ・リチャード・アラン</t>
-  </si>
-  <si>
-    <t>JIANG WEINAN;;YU XING</t>
-  </si>
-  <si>
-    <t>HA KIEU MY;;윤태현;;하키우;;YOON TAE HYUN;;KIM JIN BAE;;TRINH XUAN TUNG;;트린수안텅;;김진배</t>
-  </si>
-  <si>
-    <t>GERBEN DOORNBOS;;VAN DAL MARCUS JOHANNES HENRICUS;;MANFRINI MAURICIO;;MARCUS JOHANNES HENRICUS VAN DAL;;MAURICIO MANFRINI;;DOORNBOS GERBEN</t>
-  </si>
-  <si>
-    <t>BHATIA SWAPNIL P;;LEAKE DEVIN;;PARK HYUNJUN;;ROQUET NATHANIEL</t>
-  </si>
-  <si>
-    <t>ハルトムート・ネーヴェン;;セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;エドワード・ヘンリー・ファーリ;;CASTRILLO SERGIO BOIXO;;ユエゼン・ニウ;;NIU YUEZHEN;;FARHI EDWARD HENRY;;NEVEN HARTMUT;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>CIUBOTARU FLORIN;;COSTA JOSE DIOGO;;ADELMANN HANNS CHRISTOPH</t>
-  </si>
-  <si>
-    <t>GAMBETTA JAY M;;GAMBETTA JAY;;MCCLURE III DOUGLAS T;;MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;STEFFEN MATTHIAS</t>
-  </si>
-  <si>
-    <t>ステファン、マティアス;;JAY GAMBETTA;;ガンベッタ、ジェイ;;GAMBETTA JAY;;マクルーア ザ サード、ダグラス、テンプルトン;;M·斯蒂芬;;OLIVER DIAL;;J·加姆贝塔;;ダイアル、オリバー;;DOUGLAS TEMPLETON MCCLURE III;;MCCLURE III DOUGLAS TEMPLETON;;D·T·麦克鲁尔三世;;MATTHIAS STEFFEN;;O·蒂亚尔;;DIAL OLIVER;;STEFFEN MATTHIAS</t>
-  </si>
-  <si>
-    <t>스미르노브, 세르게이 니콜라예비치;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>FOSTNER SHAWN;;BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY</t>
+    <t>ADELMANN HANNS CHRISTOPH;;CIUBOTARU FLORIN;;COSTA JOSE DIOGO</t>
+  </si>
+  <si>
+    <t>MCCLURE III DOUGLAS TEMPLETON;;DIAL OLIVER;;GAMBETTA JAY M;;MCCLURE III DOUGLAS T;;GAMBETTA JAY;;STEFFEN MATTHIAS</t>
+  </si>
+  <si>
+    <t>M·斯蒂芬;;MCCLURE III DOUGLAS TEMPLETON;;MATTHIAS STEFFEN;;マクルーア ザ サード、ダグラス、テンプルトン;;J·加姆贝塔;;DIAL OLIVER;;DOUGLAS TEMPLETON MCCLURE III;;ガンベッタ、ジェイ;;ステファン、マティアス;;OLIVER DIAL;;JAY GAMBETTA;;O·蒂亚尔;;GAMBETTA JAY;;STEFFEN MATTHIAS;;ダイアル、オリバー;;D·T·麦克鲁尔三世</t>
+  </si>
+  <si>
+    <t>SMIRNOV SERGEY NIKOLAYEVICH;;스미르노브, 세르게이 니콜라예비치</t>
+  </si>
+  <si>
+    <t>BOSE SAURABH KUMAR;;BROWN SIMON ANTHONY;;FOSTNER SHAWN</t>
   </si>
   <si>
     <t>BARENDS RAMI;;ラミ・バレントス;;바엔즈 라미</t>
   </si>
   <si>
-    <t>SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
-  </si>
-  <si>
-    <t>セルジオ・バイショ・カストリージョ;;BOIXO CASTRILLO SERGIO;;CASTRILLO SERGIO BOIXO;;ユエゼン・ニウ;;NIU YUEZHEN;;NEVEN HARTMUT;;ハルトムート・ネーフェン;;ヴァディム・スメリャンスキー;;SMELYANSKIY VADIM</t>
+    <t>SMIRNOV SERGEJ NIKOLAEVICH;;SMIRNOV SERGEY NIIKOLAYEVICH;;SMIRNOV SERGEY NIKOLAYEVICH</t>
+  </si>
+  <si>
+    <t>SMELYANSKIY VADIM;;ハルトムート・ネーフェン;;セルジオ・バイショ・カストリージョ;;NEVEN HARTMUT;;CASTRILLO SERGIO BOIXO;;NIU YUEZHEN;;ユエゼン・ニウ;;ヴァディム・スメリャンスキー;;BOIXO CASTRILLO SERGIO</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1542,7 @@
         <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -1595,88 +1583,88 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>12.64285714285714</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>0.8345949237548312</v>
+        <v>0.7190165822573612</v>
       </c>
       <c r="F3">
-        <v>0.7068096974450839</v>
+        <v>0.9571246241229535</v>
       </c>
       <c r="G3">
-        <v>1.116957279795512</v>
+        <v>0.751852436930621</v>
       </c>
       <c r="H3">
-        <v>1.125</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K3" t="s">
         <v>148</v>
       </c>
       <c r="L3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M3">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3.5</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>220</v>
+      </c>
+      <c r="R3" t="s">
+        <v>259</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>4.666666666666666</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>2.5</v>
+      </c>
+      <c r="X3">
+        <v>5</v>
+      </c>
+      <c r="Y3">
         <v>6</v>
       </c>
-      <c r="Q3" t="s">
-        <v>225</v>
-      </c>
-      <c r="R3" t="s">
-        <v>264</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="U3">
-        <v>4</v>
-      </c>
-      <c r="V3">
-        <v>3.333333333333333</v>
-      </c>
-      <c r="W3">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>5</v>
-      </c>
       <c r="Z3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1684,88 +1672,88 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>12.16666666666667</v>
+        <v>11.64285714285714</v>
       </c>
       <c r="C4">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>0.7190165822573612</v>
+        <v>0.8345949237548312</v>
       </c>
       <c r="F4">
-        <v>0.9571246241229535</v>
+        <v>0.7615259575578296</v>
       </c>
       <c r="G4">
-        <v>0.751852436930621</v>
+        <v>1.116957279795512</v>
       </c>
       <c r="H4">
-        <v>3.066666666666667</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="s">
         <v>148</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K4" t="s">
         <v>148</v>
       </c>
       <c r="L4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="N4">
-        <v>3.666666666666667</v>
+        <v>3.5</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>221</v>
+      </c>
+      <c r="R4" t="s">
+        <v>260</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="W4">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
         <v>5</v>
       </c>
-      <c r="Q4" t="s">
-        <v>226</v>
-      </c>
-      <c r="R4" t="s">
-        <v>265</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>4.666666666666666</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>2.5</v>
-      </c>
-      <c r="X4">
-        <v>5</v>
-      </c>
-      <c r="Y4">
-        <v>6</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
       <c r="AA4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC4">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1794,10 +1782,10 @@
         <v>2.666666666666667</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K5" t="s">
         <v>148</v>
@@ -1821,7 +1809,7 @@
         <v>32</v>
       </c>
       <c r="R5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -1886,7 +1874,7 @@
         <v>148</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K6" t="s">
         <v>148</v>
@@ -1907,10 +1895,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="R6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -1963,7 +1951,7 @@
         <v>4.152294121129596</v>
       </c>
       <c r="F7">
-        <v>0.9252161911539538</v>
+        <v>0.925216191153954</v>
       </c>
       <c r="G7">
         <v>6.807893293974177</v>
@@ -1975,13 +1963,13 @@
         <v>148</v>
       </c>
       <c r="J7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="K7" t="s">
         <v>157</v>
       </c>
       <c r="L7" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="M7">
         <v>0.8333333333333333</v>
@@ -1996,10 +1984,10 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="R7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -2040,7 +2028,7 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>4.333333333333333</v>
+        <v>4.333333333333334</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2052,7 +2040,7 @@
         <v>1.781512605042017</v>
       </c>
       <c r="F8">
-        <v>0.7876372766401462</v>
+        <v>0.7876372766401459</v>
       </c>
       <c r="G8">
         <v>1.877367770637667</v>
@@ -2061,16 +2049,16 @@
         <v>0.6</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K8" t="s">
         <v>148</v>
       </c>
       <c r="L8" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2085,16 +2073,16 @@
         <v>3</v>
       </c>
       <c r="Q8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="R8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>4.333333333333333</v>
+        <v>4.333333333333334</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -2147,13 +2135,13 @@
         <v>148</v>
       </c>
       <c r="J9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K9" t="s">
         <v>148</v>
       </c>
       <c r="L9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2171,7 +2159,7 @@
         <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -2236,7 +2224,7 @@
         <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K10" t="s">
         <v>148</v>
@@ -2260,7 +2248,7 @@
         <v>37</v>
       </c>
       <c r="R10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -2316,16 +2304,16 @@
         <v>2.75</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K11" t="s">
         <v>148</v>
       </c>
       <c r="L11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -2343,7 +2331,7 @@
         <v>38</v>
       </c>
       <c r="R11" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -2399,10 +2387,10 @@
         <v>4.25</v>
       </c>
       <c r="I12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K12" t="s">
         <v>148</v>
@@ -2426,7 +2414,7 @@
         <v>39</v>
       </c>
       <c r="R12" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -2485,7 +2473,7 @@
         <v>148</v>
       </c>
       <c r="J13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K13" t="s">
         <v>148</v>
@@ -2506,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="R13" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -2595,10 +2583,10 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="R14" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -2746,7 +2734,7 @@
         <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
         <v>148</v>
@@ -2770,7 +2758,7 @@
         <v>43</v>
       </c>
       <c r="R16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -2835,7 +2823,7 @@
         <v>152</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K17" t="s">
         <v>165</v>
@@ -2859,7 +2847,7 @@
         <v>44</v>
       </c>
       <c r="R17" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2924,7 +2912,7 @@
         <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s">
         <v>148</v>
@@ -2945,10 +2933,10 @@
         <v>2</v>
       </c>
       <c r="Q18" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="R18" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -2998,7 +2986,7 @@
         <v>14</v>
       </c>
       <c r="F19">
-        <v>1.047526829268292</v>
+        <v>1.047526829268293</v>
       </c>
       <c r="H19">
         <v>4.666666666666667</v>
@@ -3007,7 +2995,7 @@
         <v>153</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
         <v>148</v>
@@ -3028,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="R19" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -3096,7 +3084,7 @@
         <v>148</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
         <v>148</v>
@@ -3117,10 +3105,10 @@
         <v>1</v>
       </c>
       <c r="Q20" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="R20" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -3182,7 +3170,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J21" t="s">
         <v>153</v>
@@ -3191,7 +3179,7 @@
         <v>148</v>
       </c>
       <c r="L21" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3209,7 +3197,7 @@
         <v>48</v>
       </c>
       <c r="R21" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -3265,7 +3253,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J22" t="s">
         <v>153</v>
@@ -3274,7 +3262,7 @@
         <v>148</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -3292,7 +3280,7 @@
         <v>49</v>
       </c>
       <c r="R22" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -3348,10 +3336,10 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K23" t="s">
         <v>148</v>
@@ -3375,7 +3363,7 @@
         <v>50</v>
       </c>
       <c r="R23" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -3431,7 +3419,7 @@
         <v>10.5</v>
       </c>
       <c r="I24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J24" t="s">
         <v>153</v>
@@ -3458,7 +3446,7 @@
         <v>51</v>
       </c>
       <c r="R24" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -3523,7 +3511,7 @@
         <v>148</v>
       </c>
       <c r="J25" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s">
         <v>148</v>
@@ -3547,7 +3535,7 @@
         <v>52</v>
       </c>
       <c r="R25" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="S25" t="b">
         <v>0</v>
@@ -3609,7 +3597,7 @@
         <v>1.5</v>
       </c>
       <c r="I26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J26" t="s">
         <v>153</v>
@@ -3636,7 +3624,7 @@
         <v>53</v>
       </c>
       <c r="R26" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="S26" t="b">
         <v>0</v>
@@ -3701,13 +3689,13 @@
         <v>155</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L27" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -3725,7 +3713,7 @@
         <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="S27" t="b">
         <v>0</v>
@@ -3790,13 +3778,13 @@
         <v>156</v>
       </c>
       <c r="J28" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -3814,7 +3802,7 @@
         <v>55</v>
       </c>
       <c r="R28" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3900,10 +3888,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="R29" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="S29" t="b">
         <v>0</v>
@@ -3968,7 +3956,7 @@
         <v>157</v>
       </c>
       <c r="J30" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="K30" t="s">
         <v>157</v>
@@ -3989,10 +3977,10 @@
         <v>2</v>
       </c>
       <c r="Q30" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="R30" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="S30" t="b">
         <v>0</v>
@@ -4054,7 +4042,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J31" t="s">
         <v>153</v>
@@ -4078,10 +4066,10 @@
         <v>1</v>
       </c>
       <c r="Q31" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="R31" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -4143,10 +4131,10 @@
         <v>4.5</v>
       </c>
       <c r="I32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K32" t="s">
         <v>148</v>
@@ -4167,10 +4155,10 @@
         <v>2</v>
       </c>
       <c r="Q32" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="R32" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="S32" t="b">
         <v>0</v>
@@ -4229,13 +4217,13 @@
         <v>158</v>
       </c>
       <c r="J33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K33" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L33" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -4250,10 +4238,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="R33" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="S33" t="b">
         <v>0</v>
@@ -4336,7 +4324,7 @@
         <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="S34" t="b">
         <v>0</v>
@@ -4419,7 +4407,7 @@
         <v>62</v>
       </c>
       <c r="R35" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -4475,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K36" t="s">
         <v>148</v>
@@ -4502,7 +4490,7 @@
         <v>63</v>
       </c>
       <c r="R36" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="S36" t="b">
         <v>0</v>
@@ -4585,7 +4573,7 @@
         <v>64</v>
       </c>
       <c r="R37" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="S37" t="b">
         <v>0</v>
@@ -4671,10 +4659,10 @@
         <v>2</v>
       </c>
       <c r="Q38" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="R38" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -4757,7 +4745,7 @@
         <v>66</v>
       </c>
       <c r="R39" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="S39" t="b">
         <v>0</v>
@@ -4840,7 +4828,7 @@
         <v>67</v>
       </c>
       <c r="R40" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="S40" t="b">
         <v>0</v>
@@ -4899,7 +4887,7 @@
         <v>160</v>
       </c>
       <c r="J41" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="K41" t="s">
         <v>157</v>
@@ -4923,7 +4911,7 @@
         <v>68</v>
       </c>
       <c r="R41" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -5006,7 +4994,7 @@
         <v>69</v>
       </c>
       <c r="R42" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="S42" t="b">
         <v>0</v>
@@ -5062,10 +5050,10 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K43" t="s">
         <v>148</v>
@@ -5089,7 +5077,7 @@
         <v>70</v>
       </c>
       <c r="R43" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -5172,7 +5160,7 @@
         <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S44" t="b">
         <v>0</v>
@@ -5255,7 +5243,7 @@
         <v>72</v>
       </c>
       <c r="R45" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -5338,7 +5326,7 @@
         <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="S46" t="b">
         <v>0</v>
@@ -5400,16 +5388,16 @@
         <v>5</v>
       </c>
       <c r="I47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K47" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L47" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5427,7 +5415,7 @@
         <v>74</v>
       </c>
       <c r="R47" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="S47" t="b">
         <v>0</v>
@@ -5483,16 +5471,16 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L48" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -5510,7 +5498,7 @@
         <v>75</v>
       </c>
       <c r="R48" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="S48" t="b">
         <v>0</v>
@@ -5593,7 +5581,7 @@
         <v>76</v>
       </c>
       <c r="R49" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="S49" t="b">
         <v>0</v>
@@ -5676,7 +5664,7 @@
         <v>77</v>
       </c>
       <c r="R50" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S50" t="b">
         <v>0</v>
@@ -5765,7 +5753,7 @@
         <v>78</v>
       </c>
       <c r="R51" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="S51" t="b">
         <v>0</v>
@@ -5848,7 +5836,7 @@
         <v>79</v>
       </c>
       <c r="R52" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="S52" t="b">
         <v>0</v>
@@ -5934,10 +5922,10 @@
         <v>1</v>
       </c>
       <c r="Q53" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="R53" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="S53" t="b">
         <v>1</v>
@@ -6020,7 +6008,7 @@
         <v>81</v>
       </c>
       <c r="R54" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="S54" t="b">
         <v>0</v>
@@ -6076,10 +6064,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K55" t="s">
         <v>148</v>
@@ -6103,7 +6091,7 @@
         <v>82</v>
       </c>
       <c r="R55" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="S55" t="b">
         <v>0</v>
@@ -6186,7 +6174,7 @@
         <v>83</v>
       </c>
       <c r="R56" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="S56" t="b">
         <v>0</v>
@@ -6272,10 +6260,10 @@
         <v>2</v>
       </c>
       <c r="Q57" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="R57" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="S57" t="b">
         <v>0</v>
@@ -6337,10 +6325,10 @@
         <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K58" t="s">
         <v>148</v>
@@ -6364,7 +6352,7 @@
         <v>85</v>
       </c>
       <c r="R58" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="S58" t="b">
         <v>0</v>
@@ -6447,7 +6435,7 @@
         <v>86</v>
       </c>
       <c r="R59" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="S59" t="b">
         <v>0</v>
@@ -6512,7 +6500,7 @@
         <v>161</v>
       </c>
       <c r="J60" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="K60" t="s">
         <v>148</v>
@@ -6533,10 +6521,10 @@
         <v>3</v>
       </c>
       <c r="Q60" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="R60" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="S60" t="b">
         <v>0</v>
@@ -6619,7 +6607,7 @@
         <v>88</v>
       </c>
       <c r="R61" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="S61" t="b">
         <v>0</v>
@@ -6678,7 +6666,7 @@
         <v>162</v>
       </c>
       <c r="J62" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="K62" t="s">
         <v>148</v>
@@ -6702,7 +6690,7 @@
         <v>89</v>
       </c>
       <c r="R62" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="S62" t="b">
         <v>0</v>
@@ -6761,13 +6749,13 @@
         <v>163</v>
       </c>
       <c r="J63" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="K63" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L63" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -6785,7 +6773,7 @@
         <v>90</v>
       </c>
       <c r="R63" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="S63" t="b">
         <v>0</v>
@@ -6841,10 +6829,10 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K64" t="s">
         <v>148</v>
@@ -6868,7 +6856,7 @@
         <v>91</v>
       </c>
       <c r="R64" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="S64" t="b">
         <v>0</v>
@@ -6933,7 +6921,7 @@
         <v>153</v>
       </c>
       <c r="J65" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K65" t="s">
         <v>148</v>
@@ -6954,10 +6942,10 @@
         <v>2</v>
       </c>
       <c r="Q65" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="R65" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="S65" t="b">
         <v>0</v>
@@ -7022,13 +7010,13 @@
         <v>164</v>
       </c>
       <c r="J66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K66" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L66" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -7043,10 +7031,10 @@
         <v>2</v>
       </c>
       <c r="Q66" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="R66" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="S66" t="b">
         <v>0</v>
@@ -7132,10 +7120,10 @@
         <v>1</v>
       </c>
       <c r="Q67" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="R67" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="S67" t="b">
         <v>0</v>
@@ -7221,10 +7209,10 @@
         <v>1</v>
       </c>
       <c r="Q68" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="R68" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="S68" t="b">
         <v>0</v>
@@ -7310,10 +7298,10 @@
         <v>1</v>
       </c>
       <c r="Q69" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="R69" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="S69" t="b">
         <v>0</v>
@@ -7372,7 +7360,7 @@
         <v>166</v>
       </c>
       <c r="J70" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="K70" t="s">
         <v>148</v>
@@ -7393,10 +7381,10 @@
         <v>0</v>
       </c>
       <c r="Q70" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="R70" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="S70" t="b">
         <v>0</v>
@@ -7455,13 +7443,13 @@
         <v>167</v>
       </c>
       <c r="J71" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="K71" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L71" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -7476,10 +7464,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="R71" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="S71" t="b">
         <v>0</v>
@@ -7544,7 +7532,7 @@
         <v>160</v>
       </c>
       <c r="J72" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="K72" t="s">
         <v>157</v>
@@ -7565,10 +7553,10 @@
         <v>1</v>
       </c>
       <c r="Q72" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="R72" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="S72" t="b">
         <v>0</v>
@@ -7648,10 +7636,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="R73" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="S73" t="b">
         <v>0</v>
@@ -7710,7 +7698,7 @@
         <v>168</v>
       </c>
       <c r="J74" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="K74" t="s">
         <v>148</v>
@@ -7731,10 +7719,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="R74" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="S74" t="b">
         <v>0</v>
@@ -7820,10 +7808,10 @@
         <v>1</v>
       </c>
       <c r="Q75" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="R75" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="S75" t="b">
         <v>0</v>
@@ -7888,13 +7876,13 @@
         <v>169</v>
       </c>
       <c r="J76" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K76" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L76" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M76">
         <v>0</v>
@@ -7909,10 +7897,10 @@
         <v>1</v>
       </c>
       <c r="Q76" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="R76" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="S76" t="b">
         <v>0</v>
@@ -7977,7 +7965,7 @@
         <v>170</v>
       </c>
       <c r="J77" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K77" t="s">
         <v>148</v>
@@ -7998,10 +7986,10 @@
         <v>1</v>
       </c>
       <c r="Q77" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="R77" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="S77" t="b">
         <v>0</v>
@@ -8081,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="R78" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="S78" t="b">
         <v>0</v>
@@ -8170,10 +8158,10 @@
         <v>1</v>
       </c>
       <c r="Q79" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="R79" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S79" t="b">
         <v>0</v>
@@ -8259,10 +8247,10 @@
         <v>1</v>
       </c>
       <c r="Q80" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="R80" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="S80" t="b">
         <v>0</v>
@@ -8327,7 +8315,7 @@
         <v>160</v>
       </c>
       <c r="J81" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="K81" t="s">
         <v>157</v>
@@ -8348,10 +8336,10 @@
         <v>1</v>
       </c>
       <c r="Q81" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="R81" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="S81" t="b">
         <v>0</v>
@@ -8410,7 +8398,7 @@
         <v>171</v>
       </c>
       <c r="J82" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K82" t="s">
         <v>148</v>
@@ -8431,10 +8419,10 @@
         <v>0</v>
       </c>
       <c r="Q82" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="R82" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="S82" t="b">
         <v>0</v>
@@ -8493,7 +8481,7 @@
         <v>171</v>
       </c>
       <c r="J83" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="K83" t="s">
         <v>148</v>
@@ -8514,10 +8502,10 @@
         <v>0</v>
       </c>
       <c r="Q83" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="R83" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="S83" t="b">
         <v>0</v>
@@ -8576,7 +8564,7 @@
         <v>172</v>
       </c>
       <c r="J84" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K84" t="s">
         <v>148</v>
@@ -8597,10 +8585,10 @@
         <v>0</v>
       </c>
       <c r="Q84" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="R84" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S84" t="b">
         <v>0</v>
@@ -8680,10 +8668,10 @@
         <v>0</v>
       </c>
       <c r="Q85" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="R85" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="S85" t="b">
         <v>0</v>
@@ -8742,13 +8730,13 @@
         <v>167</v>
       </c>
       <c r="J86" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="K86" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L86" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M86">
         <v>0</v>
@@ -8763,10 +8751,10 @@
         <v>0</v>
       </c>
       <c r="Q86" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="R86" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="S86" t="b">
         <v>0</v>
@@ -8846,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="Q87" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="R87" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="S87" t="b">
         <v>0</v>
@@ -8911,10 +8899,10 @@
         <v>6</v>
       </c>
       <c r="I88" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J88" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K88" t="s">
         <v>148</v>
@@ -8935,10 +8923,10 @@
         <v>1</v>
       </c>
       <c r="Q88" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="R88" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="S88" t="b">
         <v>0</v>
@@ -9003,13 +8991,13 @@
         <v>165</v>
       </c>
       <c r="J89" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K89" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L89" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -9024,10 +9012,10 @@
         <v>1</v>
       </c>
       <c r="Q89" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="R89" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="S89" t="b">
         <v>0</v>
@@ -9092,13 +9080,13 @@
         <v>165</v>
       </c>
       <c r="J90" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K90" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L90" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M90">
         <v>0</v>
@@ -9113,10 +9101,10 @@
         <v>1</v>
       </c>
       <c r="Q90" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="R90" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="S90" t="b">
         <v>1</v>
@@ -9178,10 +9166,10 @@
         <v>3</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J91" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K91" t="s">
         <v>148</v>
@@ -9202,10 +9190,10 @@
         <v>1</v>
       </c>
       <c r="Q91" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="R91" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="S91" t="b">
         <v>0</v>
@@ -9264,13 +9252,13 @@
         <v>158</v>
       </c>
       <c r="J92" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="K92" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L92" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M92">
         <v>0</v>
@@ -9285,10 +9273,10 @@
         <v>0</v>
       </c>
       <c r="Q92" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="R92" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="S92" t="b">
         <v>0</v>
@@ -9374,10 +9362,10 @@
         <v>1</v>
       </c>
       <c r="Q93" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="R93" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="S93" t="b">
         <v>0</v>
@@ -9436,13 +9424,13 @@
         <v>158</v>
       </c>
       <c r="J94" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="K94" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L94" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -9457,10 +9445,10 @@
         <v>0</v>
       </c>
       <c r="Q94" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="R94" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="S94" t="b">
         <v>0</v>
@@ -9522,16 +9510,16 @@
         <v>16</v>
       </c>
       <c r="I95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J95" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K95" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L95" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -9546,10 +9534,10 @@
         <v>1</v>
       </c>
       <c r="Q95" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="R95" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="S95" t="b">
         <v>0</v>
@@ -9611,10 +9599,10 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J96" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K96" t="s">
         <v>148</v>
@@ -9635,10 +9623,10 @@
         <v>1</v>
       </c>
       <c r="Q96" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="R96" t="s">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="S96" t="b">
         <v>0</v>
@@ -9703,7 +9691,7 @@
         <v>160</v>
       </c>
       <c r="J97" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="K97" t="s">
         <v>157</v>
@@ -9724,10 +9712,10 @@
         <v>1</v>
       </c>
       <c r="Q97" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="R97" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="S97" t="b">
         <v>0</v>
@@ -9789,16 +9777,16 @@
         <v>16</v>
       </c>
       <c r="I98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J98" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="K98" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L98" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M98">
         <v>0</v>
@@ -9813,10 +9801,10 @@
         <v>1</v>
       </c>
       <c r="Q98" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="R98" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="S98" t="b">
         <v>0</v>
@@ -9878,10 +9866,10 @@
         <v>165</v>
       </c>
       <c r="K99" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L99" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -9896,10 +9884,10 @@
         <v>0</v>
       </c>
       <c r="Q99" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="R99" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="S99" t="b">
         <v>1</v>
@@ -9961,16 +9949,16 @@
         <v>3</v>
       </c>
       <c r="I100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K100" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L100" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -9985,10 +9973,10 @@
         <v>1</v>
       </c>
       <c r="Q100" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R100" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="S100" t="b">
         <v>1</v>
@@ -10050,16 +10038,16 @@
         <v>3</v>
       </c>
       <c r="I101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K101" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L101" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -10074,10 +10062,10 @@
         <v>1</v>
       </c>
       <c r="Q101" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R101" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="S101" t="b">
         <v>1</v>
@@ -10139,10 +10127,10 @@
         <v>165</v>
       </c>
       <c r="K102" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L102" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -10157,10 +10145,10 @@
         <v>0</v>
       </c>
       <c r="Q102" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="R102" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="S102" t="b">
         <v>0</v>
@@ -10222,16 +10210,16 @@
         <v>3</v>
       </c>
       <c r="I103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K103" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L103" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -10246,10 +10234,10 @@
         <v>1</v>
       </c>
       <c r="Q103" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="R103" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="S103" t="b">
         <v>1</v>
@@ -10335,10 +10323,10 @@
         <v>1</v>
       </c>
       <c r="Q104" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="R104" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="S104" t="b">
         <v>1</v>
@@ -10424,10 +10412,10 @@
         <v>1</v>
       </c>
       <c r="Q105" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="R105" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="S105" t="b">
         <v>1</v>
@@ -10513,10 +10501,10 @@
         <v>1</v>
       </c>
       <c r="Q106" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="R106" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="S106" t="b">
         <v>1</v>
@@ -10578,10 +10566,10 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J107" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K107" t="s">
         <v>148</v>
@@ -10602,10 +10590,10 @@
         <v>1</v>
       </c>
       <c r="Q107" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R107" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="S107" t="b">
         <v>0</v>
@@ -10667,10 +10655,10 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J108" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K108" t="s">
         <v>148</v>
@@ -10691,10 +10679,10 @@
         <v>1</v>
       </c>
       <c r="Q108" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R108" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="S108" t="b">
         <v>1</v>
@@ -10780,10 +10768,10 @@
         <v>1</v>
       </c>
       <c r="Q109" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="R109" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="S109" t="b">
         <v>1</v>
@@ -10845,10 +10833,10 @@
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J110" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K110" t="s">
         <v>148</v>
@@ -10869,10 +10857,10 @@
         <v>1</v>
       </c>
       <c r="Q110" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="R110" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="S110" t="b">
         <v>1</v>
@@ -10958,10 +10946,10 @@
         <v>1</v>
       </c>
       <c r="Q111" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="R111" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="S111" t="b">
         <v>1</v>
@@ -11023,16 +11011,16 @@
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J112" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K112" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L112" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M112">
         <v>0</v>
@@ -11047,10 +11035,10 @@
         <v>1</v>
       </c>
       <c r="Q112" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R112" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="S112" t="b">
         <v>0</v>
@@ -11112,16 +11100,16 @@
         <v>3</v>
       </c>
       <c r="I113" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J113" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K113" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L113" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M113">
         <v>0</v>
@@ -11136,10 +11124,10 @@
         <v>1</v>
       </c>
       <c r="Q113" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R113" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="S113" t="b">
         <v>0</v>
@@ -11201,16 +11189,16 @@
         <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J114" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K114" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L114" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -11225,10 +11213,10 @@
         <v>1</v>
       </c>
       <c r="Q114" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R114" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="S114" t="b">
         <v>1</v>
@@ -11284,10 +11272,10 @@
         <v>9</v>
       </c>
       <c r="I115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J115" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K115" t="s">
         <v>148</v>
@@ -11308,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="Q115" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="R115" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="S115" t="b">
         <v>1</v>
@@ -11367,10 +11355,10 @@
         <v>9</v>
       </c>
       <c r="I116" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J116" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K116" t="s">
         <v>148</v>
@@ -11391,10 +11379,10 @@
         <v>0</v>
       </c>
       <c r="Q116" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="R116" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="S116" t="b">
         <v>1</v>
@@ -11456,16 +11444,16 @@
         <v>3</v>
       </c>
       <c r="I117" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J117" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K117" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L117" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M117">
         <v>0</v>
@@ -11480,10 +11468,10 @@
         <v>1</v>
       </c>
       <c r="Q117" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R117" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="S117" t="b">
         <v>0</v>
@@ -11539,10 +11527,10 @@
         <v>9</v>
       </c>
       <c r="I118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J118" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K118" t="s">
         <v>148</v>
@@ -11563,10 +11551,10 @@
         <v>0</v>
       </c>
       <c r="Q118" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="R118" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="S118" t="b">
         <v>1</v>
@@ -11622,10 +11610,10 @@
         <v>9</v>
       </c>
       <c r="I119" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J119" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K119" t="s">
         <v>148</v>
@@ -11646,10 +11634,10 @@
         <v>0</v>
       </c>
       <c r="Q119" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="R119" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="S119" t="b">
         <v>1</v>
@@ -11711,16 +11699,16 @@
         <v>3</v>
       </c>
       <c r="I120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J120" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K120" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L120" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M120">
         <v>0</v>
@@ -11735,10 +11723,10 @@
         <v>1</v>
       </c>
       <c r="Q120" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="R120" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="S120" t="b">
         <v>0</v>
